--- a/tests/testthat/sample_config/Test_validation2.xlsx
+++ b/tests/testthat/sample_config/Test_validation2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Ethiopia-HEP-Capacity-Analysis\tests\testthat\sample_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C434D7E6-D3D7-4F9D-B8B4-71714885145B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B21CA65-4BCF-4E26-A87E-003D60849A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3050" yWindow="240" windowWidth="29640" windowHeight="11830" activeTab="2" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{B3E9A58C-A710-4FBC-A24E-FA15ED7544EF}"/>
   </bookViews>
   <sheets>
     <sheet name="SeasonalityCurves" sheetId="4" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="5" r:id="rId2"/>
     <sheet name="PopValues" sheetId="6" r:id="rId3"/>
-    <sheet name="TaskValues_ref" sheetId="2" r:id="rId4"/>
-    <sheet name="Total_Pop" sheetId="3" r:id="rId5"/>
+    <sheet name="CoverageRates" sheetId="7" r:id="rId4"/>
+    <sheet name="TaskValues_ref" sheetId="2" r:id="rId5"/>
+    <sheet name="Total_Pop" sheetId="3" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +42,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rui Han (AgileOne)</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7187C9E9-3DDE-4722-8719-822F92B86F3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rui Han (AgileOne):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If these are left blank or a task is not included on this sheet, it will be assumed to be 100% coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="222">
   <si>
     <t>Month</t>
   </si>
@@ -631,6 +666,87 @@
   </si>
   <si>
     <t>Mortality75+M</t>
+  </si>
+  <si>
+    <t>Year 0</t>
+  </si>
+  <si>
+    <t>Year 1</t>
+  </si>
+  <si>
+    <t>Year 2</t>
+  </si>
+  <si>
+    <t>Year 3</t>
+  </si>
+  <si>
+    <t>Year 4</t>
+  </si>
+  <si>
+    <t>Year 5</t>
+  </si>
+  <si>
+    <t>Year 6</t>
+  </si>
+  <si>
+    <t>Year 7</t>
+  </si>
+  <si>
+    <t>Year 8</t>
+  </si>
+  <si>
+    <t>Year 9</t>
+  </si>
+  <si>
+    <t>Year 10</t>
+  </si>
+  <si>
+    <t>Year 11</t>
+  </si>
+  <si>
+    <t>Year 12</t>
+  </si>
+  <si>
+    <t>Year 13</t>
+  </si>
+  <si>
+    <t>Year 14</t>
+  </si>
+  <si>
+    <t>Year 15</t>
+  </si>
+  <si>
+    <t>Year 16</t>
+  </si>
+  <si>
+    <t>Year 17</t>
+  </si>
+  <si>
+    <t>Year 18</t>
+  </si>
+  <si>
+    <t>Year 19</t>
+  </si>
+  <si>
+    <t>Year 20</t>
+  </si>
+  <si>
+    <t>Newborn</t>
+  </si>
+  <si>
+    <t>Newborn care</t>
+  </si>
+  <si>
+    <t>WellChild</t>
+  </si>
+  <si>
+    <t>Well child check &amp; growth monitoring</t>
+  </si>
+  <si>
+    <t>sheet_Coverage</t>
+  </si>
+  <si>
+    <t>CoverageRates</t>
   </si>
 </sst>
 </file>
@@ -645,7 +761,7 @@
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,8 +791,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +863,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -814,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -877,6 +1023,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2935,17 +3083,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2965,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2990,7 +3138,7 @@
         <v>9.7892720259538907E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3015,7 +3163,7 @@
         <v>0.11145199066061744</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3040,7 +3188,7 @@
         <v>0.12678985220161312</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3065,7 +3213,7 @@
         <v>0.11608174608550521</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3090,7 +3238,7 @@
         <v>9.710943265680623E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3115,7 +3263,7 @@
         <v>7.3740198772910687E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +3288,7 @@
         <v>5.6152135281385754E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3165,7 +3313,7 @@
         <v>5.7572990687490763E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3190,7 +3338,7 @@
         <v>5.5517049192932967E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3215,7 +3363,7 @@
         <v>5.6351548258912781E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3240,7 +3388,7 @@
         <v>6.8327289554465973E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3272,22 +3420,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF3883A-1131-4B09-9B99-411EE3911E48}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="74.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.06640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.59765625" customWidth="1"/>
+    <col min="13" max="13" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="74.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -3322,13 +3471,16 @@
         <v>114</v>
       </c>
       <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
         <v>115</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -3363,9 +3515,12 @@
         <v>120</v>
       </c>
       <c r="L2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" t="s">
         <v>121</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3378,16 +3533,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA1B2A2-A66F-4453-9C98-608AC6A08B0F}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.75">
       <c r="A1" s="31" t="s">
         <v>123</v>
       </c>
@@ -3413,7 +3568,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -3439,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -3465,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -3491,7 +3646,7 @@
         <v>0.98846927759109204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -3517,7 +3672,7 @@
         <v>0.99316389691241536</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -3543,7 +3698,7 @@
         <v>0.98022410443373342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -3569,7 +3724,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -3595,7 +3750,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -3621,7 +3776,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -3647,7 +3802,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>152</v>
       </c>
@@ -3673,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -3699,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>157</v>
       </c>
@@ -3725,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -3751,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -3777,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -3803,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -3829,7 +3984,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>167</v>
       </c>
@@ -3855,7 +4010,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>169</v>
       </c>
@@ -3881,7 +4036,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -3907,7 +4062,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -3933,7 +4088,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -3959,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -3985,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -4011,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>181</v>
       </c>
@@ -4037,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -4063,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>185</v>
       </c>
@@ -4089,7 +4244,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>187</v>
       </c>
@@ -4115,7 +4270,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -4141,7 +4296,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>191</v>
       </c>
@@ -4167,7 +4322,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>193</v>
       </c>
@@ -4209,6 +4364,267 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C0C4B8-FC42-43E8-BBB5-37CF9595C159}">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="U1" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="V1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="W1" s="36" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:G3" si="0">C2</f>
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:L3" si="1">0.75</f>
+        <v>0.75</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M2">
+        <v>0.9</v>
+      </c>
+      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="O2">
+        <v>0.9</v>
+      </c>
+      <c r="P2">
+        <v>0.9</v>
+      </c>
+      <c r="Q2">
+        <v>0.9</v>
+      </c>
+      <c r="R2">
+        <v>0.95</v>
+      </c>
+      <c r="S2">
+        <v>0.95</v>
+      </c>
+      <c r="T2">
+        <v>0.95</v>
+      </c>
+      <c r="U2">
+        <v>0.95</v>
+      </c>
+      <c r="V2">
+        <v>0.95</v>
+      </c>
+      <c r="W2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="M3">
+        <v>0.9</v>
+      </c>
+      <c r="N3">
+        <v>0.9</v>
+      </c>
+      <c r="O3">
+        <v>0.9</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.9</v>
+      </c>
+      <c r="R3">
+        <v>0.95</v>
+      </c>
+      <c r="S3">
+        <v>0.95</v>
+      </c>
+      <c r="T3">
+        <v>0.95</v>
+      </c>
+      <c r="U3">
+        <v>0.95</v>
+      </c>
+      <c r="V3">
+        <v>0.95</v>
+      </c>
+      <c r="W3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:W3" xr:uid="{4A674B50-59E3-4983-AA39-CC06D58DA052}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7F5554-3BA4-46F6-B5C6-F7E042EE5330}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
@@ -4216,22 +4632,22 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="248.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.06640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="248.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="35" t="s">
         <v>18</v>
       </c>
@@ -4305,7 +4721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -4361,7 +4777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4420,7 +4836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4476,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -4538,7 +4954,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -4603,7 +5019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -4662,7 +5078,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -4718,7 +5134,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -4787,7 +5203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4852,7 +5268,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -4920,7 +5336,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -4979,7 +5395,7 @@
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5038,7 +5454,7 @@
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -5100,7 +5516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -5165,7 +5581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF05A38-A853-4925-B189-8985C9800629}">
   <dimension ref="A1:G102"/>
   <sheetViews>
@@ -5173,13 +5589,13 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -5193,7 +5609,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>103</v>
       </c>
@@ -5210,7 +5626,7 @@
         <v>3534159.3559999997</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -5228,7 +5644,7 @@
       </c>
       <c r="F3" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -5246,7 +5662,7 @@
       </c>
       <c r="F4" s="27"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -5264,7 +5680,7 @@
       </c>
       <c r="F5" s="27"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -5281,7 +5697,7 @@
         <v>3221605.9610000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -5298,7 +5714,7 @@
         <v>3172846.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -5315,7 +5731,7 @@
         <v>3111029.5999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -5332,7 +5748,7 @@
         <v>3049212.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -5349,7 +5765,7 @@
         <v>2993498.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -5366,7 +5782,7 @@
         <v>2937783.6000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="29">
         <v>10</v>
       </c>
@@ -5383,7 +5799,7 @@
         <v>2882069.0000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="29">
         <v>11</v>
       </c>
@@ -5401,7 +5817,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="29">
         <v>12</v>
       </c>
@@ -5418,7 +5834,7 @@
         <v>2770639.8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="29">
         <v>13</v>
       </c>
@@ -5435,7 +5851,7 @@
         <v>2735543.64</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="29">
         <v>14</v>
       </c>
@@ -5452,7 +5868,7 @@
         <v>2700447.4800000004</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="29">
         <v>15</v>
       </c>
@@ -5469,7 +5885,7 @@
         <v>2665351.3200000003</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="29">
         <v>16</v>
       </c>
@@ -5486,7 +5902,7 @@
         <v>2630255.16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="29">
         <v>17</v>
       </c>
@@ -5503,7 +5919,7 @@
         <v>2595159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="29">
         <v>18</v>
       </c>
@@ -5520,7 +5936,7 @@
         <v>2546001.44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="29">
         <v>19</v>
       </c>
@@ -5537,7 +5953,7 @@
         <v>2496843.88</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="29">
         <v>20</v>
       </c>
@@ -5554,7 +5970,7 @@
         <v>2447686.3199999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="29">
         <v>21</v>
       </c>
@@ -5571,7 +5987,7 @@
         <v>2398528.7599999998</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="29">
         <v>22</v>
       </c>
@@ -5588,7 +6004,7 @@
         <v>2349371.2000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="29">
         <v>23</v>
       </c>
@@ -5605,7 +6021,7 @@
         <v>2267184.5200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="29">
         <v>24</v>
       </c>
@@ -5622,7 +6038,7 @@
         <v>2184997.8400000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="29">
         <v>25</v>
       </c>
@@ -5639,7 +6055,7 @@
         <v>2102811.16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="29">
         <v>26</v>
       </c>
@@ -5656,7 +6072,7 @@
         <v>2020624.4800000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="29">
         <v>27</v>
       </c>
@@ -5673,7 +6089,7 @@
         <v>1938437.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="29">
         <v>28</v>
       </c>
@@ -5690,7 +6106,7 @@
         <v>1851505.96</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="29">
         <v>29</v>
       </c>
@@ -5707,7 +6123,7 @@
         <v>1764574.12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="29">
         <v>30</v>
       </c>
@@ -5724,7 +6140,7 @@
         <v>1677642.2800000003</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="29">
         <v>31</v>
       </c>
@@ -5741,7 +6157,7 @@
         <v>1590710.4400000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="29">
         <v>32</v>
       </c>
@@ -5758,7 +6174,7 @@
         <v>1503778.6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="29">
         <v>33</v>
       </c>
@@ -5775,7 +6191,7 @@
         <v>1453982.28</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="29">
         <v>34</v>
       </c>
@@ -5792,7 +6208,7 @@
         <v>1404185.96</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="29">
         <v>35</v>
       </c>
@@ -5809,7 +6225,7 @@
         <v>1354389.64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="29">
         <v>36</v>
       </c>
@@ -5826,7 +6242,7 @@
         <v>1304593.3199999998</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="29">
         <v>37</v>
       </c>
@@ -5843,7 +6259,7 @@
         <v>1254797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="29">
         <v>38</v>
       </c>
@@ -5860,7 +6276,7 @@
         <v>1201195.3999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="29">
         <v>39</v>
       </c>
@@ -5877,7 +6293,7 @@
         <v>1147593.8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="29">
         <v>40</v>
       </c>
@@ -5894,7 +6310,7 @@
         <v>1093992.2000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="29">
         <v>41</v>
       </c>
@@ -5911,7 +6327,7 @@
         <v>1040390.6000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="29">
         <v>42</v>
       </c>
@@ -5928,7 +6344,7 @@
         <v>986789</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="29">
         <v>43</v>
       </c>
@@ -5945,7 +6361,7 @@
         <v>953619.52</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="29">
         <v>44</v>
       </c>
@@ -5962,7 +6378,7 @@
         <v>920450.04</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="29">
         <v>45</v>
       </c>
@@ -5979,7 +6395,7 @@
         <v>887280.56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="29">
         <v>46</v>
       </c>
@@ -5996,7 +6412,7 @@
         <v>854111.08000000007</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="29">
         <v>47</v>
       </c>
@@ -6013,7 +6429,7 @@
         <v>820941.6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="29">
         <v>48</v>
       </c>
@@ -6030,7 +6446,7 @@
         <v>785903.12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="29">
         <v>49</v>
       </c>
@@ -6047,7 +6463,7 @@
         <v>750864.64</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="29">
         <v>50</v>
       </c>
@@ -6064,7 +6480,7 @@
         <v>715826.16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="29">
         <v>51</v>
       </c>
@@ -6081,7 +6497,7 @@
         <v>680787.68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="29">
         <v>52</v>
       </c>
@@ -6098,7 +6514,7 @@
         <v>645749.19999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="29">
         <v>53</v>
       </c>
@@ -6115,7 +6531,7 @@
         <v>615612.16000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="29">
         <v>54</v>
       </c>
@@ -6132,7 +6548,7 @@
         <v>585475.12000000011</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="29">
         <v>55</v>
       </c>
@@ -6149,7 +6565,7 @@
         <v>555338.08000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="29">
         <v>56</v>
       </c>
@@ -6166,7 +6582,7 @@
         <v>525201.04</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="29">
         <v>57</v>
       </c>
@@ -6183,7 +6599,7 @@
         <v>495064</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="29">
         <v>58</v>
       </c>
@@ -6200,7 +6616,7 @@
         <v>478301.76</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="29">
         <v>59</v>
       </c>
@@ -6217,7 +6633,7 @@
         <v>461539.52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="29">
         <v>60</v>
       </c>
@@ -6234,7 +6650,7 @@
         <v>444777.28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="29">
         <v>61</v>
       </c>
@@ -6251,7 +6667,7 @@
         <v>428015.04000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="29">
         <v>62</v>
       </c>
@@ -6268,7 +6684,7 @@
         <v>411252.8</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="29">
         <v>63</v>
       </c>
@@ -6285,7 +6701,7 @@
         <v>391733.83999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="29">
         <v>64</v>
       </c>
@@ -6302,7 +6718,7 @@
         <v>372214.88</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="29">
         <v>65</v>
       </c>
@@ -6319,7 +6735,7 @@
         <v>352695.92000000004</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="29">
         <v>66</v>
       </c>
@@ -6336,7 +6752,7 @@
         <v>333176.96000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="29">
         <v>67</v>
       </c>
@@ -6353,7 +6769,7 @@
         <v>313658</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="29">
         <v>68</v>
       </c>
@@ -6370,7 +6786,7 @@
         <v>298463.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="29">
         <v>69</v>
       </c>
@@ -6387,7 +6803,7 @@
         <v>283269.59999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="29">
         <v>70</v>
       </c>
@@ -6404,7 +6820,7 @@
         <v>268075.40000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="29">
         <v>71</v>
       </c>
@@ -6421,7 +6837,7 @@
         <v>252881.2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="29">
         <v>72</v>
       </c>
@@ -6438,7 +6854,7 @@
         <v>237687</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="29">
         <v>73</v>
       </c>
@@ -6455,7 +6871,7 @@
         <v>219786.91999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="29">
         <v>74</v>
       </c>
@@ -6472,7 +6888,7 @@
         <v>201886.84</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="29">
         <v>75</v>
       </c>
@@ -6489,7 +6905,7 @@
         <v>183986.76</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="29">
         <v>76</v>
       </c>
@@ -6506,7 +6922,7 @@
         <v>166086.68</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="29">
         <v>77</v>
       </c>
@@ -6523,7 +6939,7 @@
         <v>148186.59999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="29">
         <v>78</v>
       </c>
@@ -6540,7 +6956,7 @@
         <v>132610.33759999997</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="29">
         <v>79</v>
       </c>
@@ -6557,7 +6973,7 @@
         <v>117034.07519999999</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="29">
         <v>80</v>
       </c>
@@ -6574,7 +6990,7 @@
         <v>101457.81279999999</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="29">
         <v>81</v>
       </c>
@@ -6591,7 +7007,7 @@
         <v>85881.550399999978</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="29">
         <v>82</v>
       </c>
@@ -6608,7 +7024,7 @@
         <v>70305.288</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="29">
         <v>83</v>
       </c>
@@ -6625,7 +7041,7 @@
         <v>61841.988799999999</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="29">
         <v>84</v>
       </c>
@@ -6642,7 +7058,7 @@
         <v>53378.689599999998</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="29">
         <v>85</v>
       </c>
@@ -6659,7 +7075,7 @@
         <v>44915.390400000004</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="29">
         <v>86</v>
       </c>
@@ -6676,7 +7092,7 @@
         <v>36452.091200000003</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="29">
         <v>87</v>
       </c>
@@ -6693,7 +7109,7 @@
         <v>27988.792000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="29">
         <v>88</v>
       </c>
@@ -6710,7 +7126,7 @@
         <v>23527.103600000002</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="29">
         <v>89</v>
       </c>
@@ -6727,7 +7143,7 @@
         <v>19065.415199999999</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="29">
         <v>90</v>
       </c>
@@ -6744,7 +7160,7 @@
         <v>14603.726799999997</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="29">
         <v>91</v>
       </c>
@@ -6761,7 +7177,7 @@
         <v>10142.038399999998</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="29">
         <v>92</v>
       </c>
@@ -6778,7 +7194,7 @@
         <v>5680.3499999999995</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="29">
         <v>93</v>
       </c>
@@ -6795,7 +7211,7 @@
         <v>4655.0383999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="29">
         <v>94</v>
       </c>
@@ -6812,7 +7228,7 @@
         <v>3629.7267999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="29">
         <v>95</v>
       </c>
@@ -6829,7 +7245,7 @@
         <v>2604.4151999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="29">
         <v>96</v>
       </c>
@@ -6846,7 +7262,7 @@
         <v>1579.1035999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="29">
         <v>97</v>
       </c>
@@ -6863,7 +7279,7 @@
         <v>553.79199999999992</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="29">
         <v>98</v>
       </c>
@@ -6880,7 +7296,7 @@
         <v>517.19466666666665</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="29">
         <v>99</v>
       </c>
@@ -6897,7 +7313,7 @@
         <v>480.59733333333332</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="29">
         <v>100</v>
       </c>
